--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quinto Semestre\Programacion web\Curso-full-stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A72043D-4F50-4DD8-A6FF-67BADA573CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8221B58F-9FF6-47C1-852C-977F3A13ECF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="3765" windowWidth="17550" windowHeight="14475" xr2:uid="{277F7D05-DB40-422D-A93B-84EED8012C36}"/>
+    <workbookView xWindow="4215" yWindow="1125" windowWidth="17550" windowHeight="14475" xr2:uid="{277F7D05-DB40-422D-A93B-84EED8012C36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Bitácora de progreso</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>pacientes.html</t>
+  </si>
+  <si>
+    <t>Repaso CSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 -16</t>
   </si>
 </sst>
 </file>
@@ -67,7 +73,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +98,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -105,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -117,16 +129,28 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -446,7 +470,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,16 +478,16 @@
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -481,36 +505,48 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>44069</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="9">
+        <v>44076</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -565,5 +601,8 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D6" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quinto Semestre\Programacion web\Curso-full-stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8221B58F-9FF6-47C1-852C-977F3A13ECF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6168A499-9C90-4892-807B-861CFA51F3A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4215" yWindow="1125" windowWidth="17550" windowHeight="14475" xr2:uid="{277F7D05-DB40-422D-A93B-84EED8012C36}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Bitácora de progreso</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 8 -16</t>
+  </si>
+  <si>
+    <t>style.css</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +547,7 @@
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7" s="10"/>
     </row>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quinto Semestre\Programacion web\Curso-full-stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6168A499-9C90-4892-807B-861CFA51F3A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3062EDDD-E0C4-4A62-B767-52F7C7A396A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="1125" windowWidth="17550" windowHeight="14475" xr2:uid="{277F7D05-DB40-422D-A93B-84EED8012C36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{277F7D05-DB40-422D-A93B-84EED8012C36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Bitácora de progreso</t>
   </si>
@@ -61,6 +61,24 @@
   </si>
   <si>
     <t>style.css</t>
+  </si>
+  <si>
+    <t>JavaScript y JS + HTML</t>
+  </si>
+  <si>
+    <t>17-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15/09/2020 - 22/09/2020</t>
+  </si>
+  <si>
+    <t>index.html         script.js</t>
+  </si>
+  <si>
+    <t>31-46</t>
+  </si>
+  <si>
+    <t>index.html         style.css</t>
   </si>
 </sst>
 </file>
@@ -85,12 +103,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -103,12 +115,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -116,44 +134,169 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -470,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB4DE9D-6B43-4EE2-8ECB-0EB7768CD54A}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,110 +627,131 @@
     <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>44069</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
         <v>44076</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="22"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>44084</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="D8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -599,9 +763,20 @@
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
     </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="9">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quinto Semestre\Programacion web\Curso-full-stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3062EDDD-E0C4-4A62-B767-52F7C7A396A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFDE6C5-48C3-4DD3-AD40-9E8C46AAE691}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{277F7D05-DB40-422D-A93B-84EED8012C36}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Bitácora de progreso</t>
   </si>
@@ -78,14 +78,41 @@
     <t>31-46</t>
   </si>
   <si>
-    <t>index.html         style.css</t>
+    <t>Nueva pagina creada para reforzar el conocimiento</t>
+  </si>
+  <si>
+    <t>Carepeta "Otra pagina"</t>
+  </si>
+  <si>
+    <t>index.html                style.css</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Introducción NodeJS</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TlB</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>NodeJS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,19 +120,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -125,8 +153,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -186,42 +226,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -230,75 +239,100 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,132 +650,169 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="2"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="35"/>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>44069</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="18">
         <v>44076</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>44084</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>44101</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="22"/>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>44084</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="32">
+        <v>44101</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -767,7 +838,12 @@
       <c r="B20" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -776,7 +852,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
